--- a/Tabelas/TabelaJogos2015.xlsx
+++ b/Tabelas/TabelaJogos2015.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,202 +433,130 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0">
-      <c r="B0" s="1" t="inlineStr">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C0" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ATM</t>
         </is>
       </c>
-      <c r="D0" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ATP</t>
         </is>
       </c>
-      <c r="E0" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>AVA</t>
         </is>
       </c>
-      <c r="F0" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CHA</t>
         </is>
       </c>
-      <c r="G0" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>COR</t>
         </is>
       </c>
-      <c r="H0" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CTB</t>
         </is>
       </c>
-      <c r="I0" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CRU</t>
         </is>
       </c>
-      <c r="J0" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>FIG</t>
         </is>
       </c>
-      <c r="K0" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="L0" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FLU</t>
         </is>
       </c>
-      <c r="M0" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>GOI</t>
         </is>
       </c>
-      <c r="N0" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="O0" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>INT</t>
         </is>
       </c>
-      <c r="P0" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>JOI</t>
         </is>
       </c>
-      <c r="Q0" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>PAL</t>
         </is>
       </c>
-      <c r="R0" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>PON</t>
         </is>
       </c>
-      <c r="S0" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>SAN</t>
         </is>
       </c>
-      <c r="T0" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>SPA</t>
         </is>
       </c>
-      <c r="U0" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>SPT</t>
         </is>
       </c>
-      <c r="V0" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>VAS</t>
         </is>
-      </c>
-    </row>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Atlético-MG</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V1" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atlético-PR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>Atlético-MG</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
@@ -639,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -651,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -663,13 +591,13 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -678,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>3</v>
@@ -686,24 +614,24 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Atlético-PR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
@@ -711,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -735,13 +663,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -753,55 +681,55 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -810,70 +738,70 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -882,19 +810,19 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>3</v>
@@ -902,128 +830,128 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
@@ -1032,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1046,39 +974,39 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Figueirense</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
       <c r="K8" t="n">
         <v>3</v>
       </c>
@@ -1089,25 +1017,25 @@
         <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>3</v>
@@ -1118,117 +1046,117 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Figueirense</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
@@ -1236,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1245,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>3</v>
@@ -1262,123 +1190,123 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
       <c r="O12" t="n">
         <v>3</v>
       </c>
@@ -1389,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
@@ -1398,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>3</v>
@@ -1406,15 +1334,15 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
@@ -1423,22 +1351,22 @@
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
@@ -1446,14 +1374,14 @@
       <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
@@ -1461,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -1478,18 +1406,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Joinville</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1498,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
@@ -1507,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1519,42 +1447,42 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Joinville</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1567,54 +1495,54 @@
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1622,18 +1550,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1645,13 +1573,13 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1660,10 +1588,10 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -1671,13 +1599,13 @@
       <c r="P16" t="n">
         <v>3</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>—</t>
         </is>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -1694,15 +1622,15 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -1714,63 +1642,63 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1780,13 +1708,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
@@ -1798,16 +1726,16 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
@@ -1816,67 +1744,67 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
@@ -1891,90 +1819,162 @@
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
-      <c r="V20" t="inlineStr">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>—</t>
         </is>
